--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -660,7 +660,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>571</v>
+        <v>431</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>579</v>
+        <v>436</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>581</v>
+        <v>263</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1029,13 +1029,13 @@
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>15</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>15</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1085,13 +1085,13 @@
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>15</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>12</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>12</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>12</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>12</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1533,16 +1533,16 @@
         <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>12</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1589,13 +1589,13 @@
         <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>288</v>
       </c>
       <c r="D35" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1673,13 +1673,13 @@
         <v>288</v>
       </c>
       <c r="D36" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1701,13 +1701,13 @@
         <v>1142</v>
       </c>
       <c r="D37" t="n">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
         <v>1142</v>
       </c>
       <c r="D38" t="n">
-        <v>832</v>
+        <v>576</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F38" t="n">
-        <v>273</v>
+        <v>478</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1757,13 +1757,13 @@
         <v>197</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1785,13 +1785,13 @@
         <v>1142</v>
       </c>
       <c r="D40" t="n">
-        <v>1129</v>
+        <v>1100</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1813,13 +1813,13 @@
         <v>1142</v>
       </c>
       <c r="D41" t="n">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
         <v>197</v>
       </c>
       <c r="D42" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1869,13 +1869,13 @@
         <v>197</v>
       </c>
       <c r="D43" t="n">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         <v>197</v>
       </c>
       <c r="D44" t="n">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -677,20 +677,20 @@
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,152 +858,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>569</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>50</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1020,1201 +1020,1297 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1117</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>576</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,14 +656,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -686,11 +686,20 @@
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>569</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1992,322 +2321,386 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1121</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>576</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>141</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -661,20 +661,20 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -858,127 +858,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1020,129 +1020,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>149</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1182,87 +1182,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1328,87 +1328,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1474,87 +1474,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1620,87 +1620,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1766,87 +1766,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1912,112 +1912,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2056,114 +2056,98 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -661,9 +661,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -678,12 +678,12 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -858,129 +858,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -993,7 +993,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1020,129 +1020,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>137</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1182,87 +1182,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1328,87 +1328,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1474,87 +1474,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1620,112 +1620,112 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1766,87 +1766,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1912,104 +1912,104 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2056,98 +2056,114 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>49</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>60</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -356,6 +356,81 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -648,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,9 +736,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -684,13 +759,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,1347 +933,1929 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1126</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v/>
       </c>
-      <c r="AC10" t="n">
+      <c r="B13" t="n">
         <v/>
       </c>
-      <c r="AD10" t="n">
+      <c r="C13" t="n">
         <v/>
       </c>
-      <c r="AE10" t="n">
+      <c r="D13" t="n">
         <v/>
       </c>
-      <c r="AF10" t="n">
+      <c r="E13" t="n">
         <v/>
       </c>
-      <c r="AG10" t="n">
+      <c r="F13" t="n">
         <v/>
       </c>
-      <c r="AH10" t="n">
+      <c r="G13" t="n">
         <v/>
       </c>
-      <c r="AI10" t="n">
+      <c r="H13" t="n">
         <v/>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +766,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1095,160 +1184,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1257,160 +1386,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1419,160 +1588,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1581,160 +1790,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1743,160 +1992,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1905,160 +2194,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2067,160 +2396,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2229,160 +2598,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2391,322 +2800,386 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2739,120 +3212,160 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,9 +745,9 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -933,129 +933,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>581</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1068,17 +1068,17 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,129 +1095,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>150</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,127 +1257,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1419,127 +1419,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1581,127 +1581,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1743,87 +1743,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1889,87 +1889,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2035,112 +2035,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2181,104 +2181,104 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2325,114 +2325,98 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2497,72 +2481,72 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2597,120 +2581,6 @@
         <v/>
       </c>
       <c r="AI12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -406,31 +406,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>242</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -933,129 +908,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1068,7 +1043,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1078,7 +1053,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,142 +1070,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1240,7 +1215,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,152 +1232,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1419,152 +1394,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1581,249 +1556,233 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1889,87 +1848,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2035,112 +1994,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2181,87 +2140,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2351,47 +2310,47 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2481,47 +2440,47 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -406,6 +406,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -698,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,13 +759,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -908,1509 +933,1621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2440,107 +2577,269 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +766,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1095,160 +1184,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1257,160 +1386,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1419,160 +1588,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1581,160 +1790,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1743,160 +1992,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1905,160 +2194,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2067,160 +2396,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2229,160 +2598,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -2391,160 +2800,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2577,120 +3026,160 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2723,120 +3212,160 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -736,9 +736,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -2332,22 +2332,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2471,29 +2471,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2601,29 +2617,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -736,9 +736,9 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>585</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,152 +1095,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,127 +1257,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1419,127 +1419,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1581,127 +1581,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1743,87 +1743,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1889,87 +1889,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2035,104 +2035,104 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2181,122 +2181,122 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB10" t="n">
@@ -2327,87 +2327,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2471,89 +2471,73 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2617,89 +2601,73 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -933,129 +933,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,129 +1095,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,127 +1257,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1419,127 +1419,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1581,127 +1581,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1743,87 +1743,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1889,87 +1889,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2035,112 +2035,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2181,122 +2181,122 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AB10" t="n">
@@ -2327,87 +2327,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2497,47 +2497,47 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2627,47 +2627,47 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -759,13 +759,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,1541 +933,1621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2497,107 +2577,123 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2627,107 +2723,123 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,6 +766,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>586</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1095,160 +1184,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1257,160 +1386,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1419,160 +1588,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1581,160 +1790,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1743,160 +1992,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1905,160 +2194,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2067,160 +2396,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1128</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1126</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1129</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2229,160 +2598,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -2391,160 +2800,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2577,120 +3026,160 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2723,120 +3212,160 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,22 +750,13 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -889,46 +880,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,12 +974,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>612</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>591</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -1038,7 +989,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1049,46 +1000,6 @@
       <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
@@ -1180,17 +1091,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1200,57 +1111,17 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
@@ -1342,17 +1213,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>204</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>158</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1362,57 +1233,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1504,17 +1335,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1533,46 +1364,6 @@
         </is>
       </c>
       <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1666,75 +1457,35 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1828,62 +1579,38 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>15</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1967,68 +1694,28 @@
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
         <v/>
       </c>
     </row>
@@ -2113,68 +1800,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>1128</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
         <v/>
       </c>
     </row>
@@ -2186,12 +1833,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2201,12 +1848,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2259,68 +1906,28 @@
           <t>26</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
         <v/>
       </c>
     </row>
@@ -2332,27 +1939,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2405,95 +2012,71 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2535,68 +2118,28 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
         <v/>
       </c>
     </row>
@@ -2665,68 +2208,28 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,8 +732,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -741,22 +741,31 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -880,490 +889,642 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1128</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>12</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>26</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1372,120 +1533,144 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1494,742 +1679,716 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -741,8 +741,8 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -750,22 +750,22 @@
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,1007 +933,1039 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -1961,93 +1993,109 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2075,93 +2123,109 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2213,69 +2277,69 @@
       <c r="Q11" t="n">
         <v/>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2327,69 +2391,69 @@
       <c r="Q12" t="n">
         <v/>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,8 +732,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -750,8 +750,8 @@
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
@@ -759,13 +759,22 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1095,144 +1184,184 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1241,728 +1370,864 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>598</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>464</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1995,104 +2260,144 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2125,104 +2430,144 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2301,42 +2646,66 @@
       <c r="Z11" t="n">
         <v/>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2415,42 +2784,66 @@
       <c r="Z12" t="n">
         <v/>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -331,31 +331,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>176</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -648,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,18 +640,18 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
@@ -858,127 +833,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1020,129 +995,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1155,7 +1130,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>153</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1165,7 +1140,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1182,129 +1157,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>adminui</t>
@@ -1317,7 +1292,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1327,7 +1302,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1368,87 +1343,87 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1514,87 +1489,87 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1660,82 +1635,82 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1790,69 +1765,69 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1890,234 +1865,6 @@
         <v/>
       </c>
       <c r="AI8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -296,31 +296,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -649,7 +624,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -660,7 +635,7 @@
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
@@ -833,291 +808,291 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>116</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>133</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1130,7 +1105,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1140,7 +1115,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>132</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1157,127 +1132,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1317,115 +1292,131 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1438,7 +1429,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1448,7 +1439,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1489,87 +1480,87 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1635,47 +1626,47 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1765,47 +1756,47 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -633,14 +633,14 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -808,648 +808,632 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1480,107 +1464,107 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1626,107 +1610,123 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1756,107 +1756,123 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +641,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,164 +813,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -970,160 +1059,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1132,160 +1261,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1318,120 +1487,160 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1464,120 +1673,160 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1610,120 +1859,160 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1756,120 +2045,160 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -306,6 +306,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -598,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,8 +657,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -639,17 +689,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -813,967 +854,799 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>133</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1787,146 +1660,122 @@
         </is>
       </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1937,85 +1786,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -2045,69 +1838,69 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2123,85 +1916,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -680,8 +680,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -858,127 +858,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1020,127 +1020,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1182,127 +1182,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1344,127 +1344,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1506,127 +1506,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1668,87 +1668,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1838,106 +1838,334 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -676,12 +676,12 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -858,127 +858,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1020,127 +1020,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1182,127 +1182,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1344,127 +1344,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1506,127 +1506,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1668,122 +1668,122 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1838,67 +1838,67 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1968,67 +1968,83 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2082,67 +2098,83 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB10" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -685,12 +685,12 @@
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,957 +858,973 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
@@ -1838,107 +1854,123 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1968,107 +2000,123 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2098,107 +2146,123 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>471</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>594</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>468</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1854,120 +2143,160 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2000,120 +2329,160 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2146,120 +2515,160 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,17 +689,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -863,388 +854,308 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>589</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>473</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>157</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1254,613 +1165,493 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>471</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1870,250 +1661,154 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>594</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -2143,64 +1838,64 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2221,85 +1916,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -2329,74 +1968,74 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2407,85 +2046,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -2515,69 +2098,69 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="X10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2593,85 +2176,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -858,144 +858,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
           <t>68</t>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>471</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1020,129 +1020,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1182,127 +1182,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1344,127 +1344,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1506,127 +1506,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>467</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1668,87 +1668,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1812,73 +1812,89 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1968,47 +1984,47 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2098,47 +2114,47 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -858,129 +858,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -993,7 +993,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>589</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>473</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1020,127 +1020,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1182,127 +1182,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1344,127 +1344,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1506,127 +1506,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>472</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>467</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1668,112 +1668,112 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1814,87 +1814,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1984,47 +1984,47 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2114,47 +2114,47 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -689,8 +689,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,1103 +858,1135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>472</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>467</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1984,107 +2016,123 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2114,107 +2162,123 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>473</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>472</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>467</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2016,120 +2345,160 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2162,120 +2531,160 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,13 +657,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
@@ -680,26 +680,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -823,86 +805,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -992,117 +894,37 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>597</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>465</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1194,17 +1016,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1219,92 +1041,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1396,117 +1138,37 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>4</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1598,22 +1260,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>15</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1623,92 +1285,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1793,125 +1375,29 @@
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1995,125 +1481,29 @@
           <t>27</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -2124,22 +1514,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2197,151 +1587,71 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -2383,151 +1693,71 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -2569,125 +1799,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>16-September-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -657,13 +657,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
@@ -809,89 +809,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -904,7 +904,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>589</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>473</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -931,87 +931,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1053,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1175,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,72 +1297,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>593</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>467</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>473</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1401,49 +1401,33 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1507,49 +1491,33 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1613,49 +1581,33 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1719,49 +1671,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -331,31 +331,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>176</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -648,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +642,7 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -809,89 +784,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>resident</t>
@@ -904,17 +879,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>593</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>467</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -931,87 +906,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1028,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1150,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,72 +1272,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1372,7 +1347,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -1427,42 +1402,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19-September-2025</t>
+          <t>23-September-2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -1517,27 +1492,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19-September-2025</t>
+          <t>23-September-2025</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1577,186 +1552,6 @@
         <v/>
       </c>
       <c r="Z8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -296,31 +296,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>154</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -651,12 +626,12 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -784,595 +759,611 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1402,67 +1393,83 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1492,67 +1499,83 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,15 @@
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -755,124 +764,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -881,120 +970,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1003,120 +1132,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1125,242 +1294,306 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1393,80 +1626,120 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1499,80 +1772,120 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -641,6 +641,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,164 +813,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -970,160 +1059,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1132,160 +1261,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1294,160 +1463,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1480,120 +1689,160 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1626,120 +1875,160 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1772,120 +2061,160 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -629,7 +629,7 @@
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
@@ -857,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,167 +1463,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1689,127 +1689,127 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1875,127 +1875,127 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2061,127 +2061,127 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -606,7 +606,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
@@ -638,7 +638,7 @@
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
@@ -857,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,167 +1463,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1689,127 +1689,127 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1875,127 +1875,127 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2061,127 +2061,127 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -615,7 +615,7 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -647,7 +647,7 @@
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -857,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,192 +1463,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>58</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>157</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1689,127 +1689,127 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1875,127 +1875,127 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2061,127 +2061,127 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -624,7 +624,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="17" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -857,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,192 +1463,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>53</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>58</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1689,127 +1689,127 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1875,127 +1875,127 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2061,127 +2061,127 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -633,7 +633,7 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -857,167 +857,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1059,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,167 +1261,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1463,167 +1463,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1689,127 +1689,127 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1875,127 +1875,127 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2061,127 +2061,127 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>03-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-September-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -306,6 +306,81 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -598,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,49 +682,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -857,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1059,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1261,192 +1336,192 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1463,192 +1538,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>53</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1663,153 +1738,169 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1849,153 +1940,169 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2035,189 +2142,343 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>30-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -673,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,17 +687,17 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1336,184 +1336,184 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1538,192 +1538,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>02-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1740,167 +1740,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1942,167 +1942,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2144,167 +2144,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-October-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2344,140 +2344,416 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="n">
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v/>
+      </c>
+      <c r="AM11" t="n">
+        <v/>
+      </c>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
+      <c r="AO11" t="n">
+        <v/>
+      </c>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -687,8 +687,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -700,13 +700,13 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -718,7 +718,7 @@
     <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1336,167 +1336,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1538,192 +1538,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>03-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1740,144 +1740,144 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AF6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1898,198 +1898,182 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="n">
+        <v/>
+      </c>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>0</t>
@@ -2100,193 +2084,177 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2302,135 +2270,151 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>02-October-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2482,93 +2466,125 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2620,93 +2636,125 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB11" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -709,16 +709,16 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1336,167 +1336,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1538,192 +1538,192 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>03-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1740,705 +1740,769 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="n">
-        <v/>
-      </c>
-      <c r="AL6" t="n">
-        <v/>
-      </c>
-      <c r="AM6" t="n">
-        <v/>
-      </c>
-      <c r="AN6" t="n">
-        <v/>
-      </c>
-      <c r="AO6" t="n">
-        <v/>
-      </c>
-      <c r="AP6" t="n">
-        <v/>
-      </c>
-      <c r="AQ6" t="n">
-        <v/>
-      </c>
-      <c r="AR6" t="n">
-        <v/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="n">
-        <v/>
-      </c>
-      <c r="AL7" t="n">
-        <v/>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="n">
-        <v/>
-      </c>
-      <c r="AP7" t="n">
-        <v/>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
-        <v/>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="n">
-        <v/>
-      </c>
-      <c r="AL8" t="n">
-        <v/>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="n">
-        <v/>
-      </c>
-      <c r="AP8" t="n">
-        <v/>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
-        <v/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK9" t="n">
         <v/>
@@ -2468,147 +2532,163 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK10" t="n">
         <v/>
@@ -2638,147 +2718,163 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK11" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -718,13 +718,13 @@
     <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
     <col width="5" customWidth="1" min="39" max="39"/>
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,1771 +1134,1819 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>213</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
-        <v/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
-        <v/>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="n">
-        <v/>
-      </c>
-      <c r="AL11" t="n">
-        <v/>
-      </c>
-      <c r="AM11" t="n">
-        <v/>
-      </c>
-      <c r="AN11" t="n">
-        <v/>
-      </c>
-      <c r="AO11" t="n">
-        <v/>
-      </c>
-      <c r="AP11" t="n">
-        <v/>
-      </c>
-      <c r="AQ11" t="n">
-        <v/>
-      </c>
-      <c r="AR11" t="n">
-        <v/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -932,167 +932,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>07-October-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1134,167 +1134,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
  